--- a/data/trans_bre/P57_AF_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.1075279149781228</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3393803588043531</v>
+        <v>0.3393803588043642</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.1064569972488548</v>
@@ -649,7 +649,7 @@
         <v>0.001346318282133843</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.004806692182367131</v>
+        <v>0.004806692182367289</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-11.77473978934467</v>
+        <v>-12.54615635900536</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.283503032001052</v>
+        <v>1.366179959990201</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.454826203690548</v>
+        <v>-3.214365509268568</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.890292528664117</v>
+        <v>-5.515138530817912</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1767830746959438</v>
+        <v>-0.1888707368831232</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0192261224437377</v>
+        <v>0.02120735341223427</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.04211477544225731</v>
+        <v>-0.03917731244467571</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.06600720482138017</v>
+        <v>-0.07568363059668094</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.354359757975742</v>
+        <v>-1.64131384857338</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.610585007340623</v>
+        <v>9.641899653757534</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.530655111859364</v>
+        <v>3.776967081896335</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.181668021303262</v>
+        <v>6.527588129459941</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.02247700613683105</v>
+        <v>-0.02702009141382861</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1584380284238941</v>
+        <v>0.15906913011692</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04491982694784293</v>
+        <v>0.04874533864076906</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.09285061783921177</v>
+        <v>0.09769833437189279</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.007749931574088</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.2404782633242175</v>
+        <v>-0.2404782633242397</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02826249744730959</v>
@@ -749,7 +749,7 @@
         <v>0.02661666847654539</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.003559898626302761</v>
+        <v>-0.003559898626303089</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.35359655065168</v>
+        <v>-2.808915773772429</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.034028713344518</v>
+        <v>1.574682814690075</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.781327552552535</v>
+        <v>-2.0651445737966</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.268069704999635</v>
+        <v>-4.438641506996722</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.0375347408990992</v>
+        <v>-0.04544544557186173</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03126794201582394</v>
+        <v>0.02410623450426529</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.02339994657424405</v>
+        <v>-0.02619791637258648</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.0614450685959286</v>
+        <v>-0.06343381366079415</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.747525634639352</v>
+        <v>5.676539761161228</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.86132282431152</v>
+        <v>10.04198747025873</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.454281214730882</v>
+        <v>5.833592965180524</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.082552286027609</v>
+        <v>3.951533007455936</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1010750454875508</v>
+        <v>0.09647850121762626</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.184519756203041</v>
+        <v>0.1639582153812547</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08923882369771187</v>
+        <v>0.08072802589983998</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.06340099170560495</v>
+        <v>0.0606292190243524</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.0167677568596901</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.04101033831660653</v>
+        <v>0.04101033831660651</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9055710485654311</v>
+        <v>0.9256646622468004</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.3043863798240264</v>
+        <v>0.03554480676276762</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.081000367393079</v>
+        <v>-3.141445497104391</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.432333200188707</v>
+        <v>-2.511398266470891</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.01434703520987798</v>
+        <v>0.01509890015052454</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.004398056686717456</v>
+        <v>0.0006566492801615676</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.04136101223918152</v>
+        <v>-0.04236479936088922</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.04702793734019536</v>
+        <v>-0.04650184362344318</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.603341559333861</v>
+        <v>9.23786923521665</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.31276489198846</v>
+        <v>9.533919326675422</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.740927098548682</v>
+        <v>5.836368795286643</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.100415935964306</v>
+        <v>6.1823424459051</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1683202245954945</v>
+        <v>0.1620161116624415</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.150980850491616</v>
+        <v>0.1551959270126379</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.080229194403383</v>
+        <v>0.08176029414014724</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.126152582600421</v>
+        <v>0.1307079964489222</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>6.94828251808527</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-2.363654471887899</v>
+        <v>-2.363654471887888</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.02953574670786195</v>
@@ -949,7 +949,7 @@
         <v>0.1185807161256469</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.0493744201967486</v>
+        <v>-0.04937442019674836</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-9.447681484097751</v>
+        <v>-8.811802279912918</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-6.95900243482855</v>
+        <v>-7.698923505331773</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8877083016339129</v>
+        <v>0.3387244715314675</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-6.743939903623575</v>
+        <v>-6.863541711728795</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1453072714740634</v>
+        <v>-0.135849137776143</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.123153061425802</v>
+        <v>-0.1349806060357845</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01344777270029985</v>
+        <v>0.006090802444828358</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.134321721974481</v>
+        <v>-0.1351518483329649</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.127421992263876</v>
+        <v>5.368429609115285</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.246857278635162</v>
+        <v>6.308351847449807</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13.0633790731196</v>
+        <v>13.3436877700604</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.39440160128748</v>
+        <v>2.019963260537142</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.08978963121763078</v>
+        <v>0.09360834117766369</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1249875490179824</v>
+        <v>0.1250454703015871</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2337841991333135</v>
+        <v>0.2397823303086484</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.05465755863717079</v>
+        <v>0.04483881185557134</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.19696815192163</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.029393172222293</v>
+        <v>1.029393172222282</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005815164368250273</v>
@@ -1049,7 +1049,7 @@
         <v>0.02975047814833356</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.01797490124074437</v>
+        <v>0.01797490124074417</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.878594734013778</v>
+        <v>-2.025188182572293</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.5548257562138</v>
+        <v>2.538438056675565</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2057794239889694</v>
+        <v>0.006193565648878761</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.526409936993426</v>
+        <v>-1.499799218747476</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.03053602380801663</v>
+        <v>-0.03257885293263486</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04043935709867062</v>
+        <v>0.04040790860886501</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.002769304599730348</v>
+        <v>8.899900662926085e-05</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.02580199498960899</v>
+        <v>-0.02581589437525473</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.779872112749292</v>
+        <v>2.596354043109363</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.087553821771232</v>
+        <v>7.26911261416382</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.366034906382665</v>
+        <v>4.191648539514301</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.334376013887559</v>
+        <v>3.45469512146946</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.04658482617827157</v>
+        <v>0.04364783023967891</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1173002091098344</v>
+        <v>0.120383946865629</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05997643208301918</v>
+        <v>0.05791284661715465</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.05954553207061528</v>
+        <v>0.06250628028758787</v>
       </c>
     </row>
     <row r="19">
